--- a/Code/Results/Cases/Case_4_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.88757195532429</v>
+        <v>20.90017149061062</v>
       </c>
       <c r="C2">
-        <v>10.81964700481944</v>
+        <v>7.450482347439462</v>
       </c>
       <c r="D2">
-        <v>8.541914335313527</v>
+        <v>13.36095203485508</v>
       </c>
       <c r="E2">
-        <v>7.926596020950294</v>
+        <v>13.60012849097872</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.113168461433014</v>
+        <v>3.712581000672822</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.297999450436638</v>
+        <v>8.355446309843638</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.460847840911376</v>
+        <v>12.30066027045948</v>
       </c>
       <c r="M2">
-        <v>13.61363617743814</v>
+        <v>19.10344080315191</v>
       </c>
       <c r="N2">
-        <v>13.43513707123066</v>
+        <v>20.64716776482446</v>
       </c>
       <c r="O2">
-        <v>21.85136230516135</v>
+        <v>32.71741759991863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64264026064736</v>
+        <v>20.61256484019727</v>
       </c>
       <c r="C3">
-        <v>10.26386366104178</v>
+        <v>7.188280921603954</v>
       </c>
       <c r="D3">
-        <v>8.430000984866741</v>
+        <v>13.37682016901493</v>
       </c>
       <c r="E3">
-        <v>7.994419113644069</v>
+        <v>13.63232731925872</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.119965212429464</v>
+        <v>3.715181920250302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.284736154286413</v>
+        <v>8.352952483653093</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.361396959876261</v>
+        <v>12.30938497058558</v>
       </c>
       <c r="M3">
-        <v>13.11059569851894</v>
+        <v>19.05135426537491</v>
       </c>
       <c r="N3">
-        <v>13.670011862447</v>
+        <v>20.71579964130773</v>
       </c>
       <c r="O3">
-        <v>21.61464730044369</v>
+        <v>32.78131793631842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.84527217179495</v>
+        <v>20.43810243344332</v>
       </c>
       <c r="C4">
-        <v>9.907017030183168</v>
+        <v>7.020948454680127</v>
       </c>
       <c r="D4">
-        <v>8.365639885289788</v>
+        <v>13.38875353698746</v>
       </c>
       <c r="E4">
-        <v>8.038412363960807</v>
+        <v>13.65332109316314</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.124265199092447</v>
+        <v>3.716864284877447</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.276710531757943</v>
+        <v>8.351439606168427</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.30283859982017</v>
+        <v>12.31626747406728</v>
       </c>
       <c r="M4">
-        <v>12.79785357112813</v>
+        <v>19.02228696092054</v>
       </c>
       <c r="N4">
-        <v>13.81710685140335</v>
+        <v>20.75988118260295</v>
       </c>
       <c r="O4">
-        <v>21.4867915586378</v>
+        <v>32.82745567913754</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51227672263082</v>
+        <v>20.36762754702159</v>
       </c>
       <c r="C5">
-        <v>9.757751026777109</v>
+        <v>6.951227051167436</v>
       </c>
       <c r="D5">
-        <v>8.340505839004553</v>
+        <v>13.39416727251472</v>
       </c>
       <c r="E5">
-        <v>8.056925815239721</v>
+        <v>13.66218454573409</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.126050275207659</v>
+        <v>3.717571405014507</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.273467650906455</v>
+        <v>8.350827744354616</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.279615356378177</v>
+        <v>12.31945638928321</v>
       </c>
       <c r="M5">
-        <v>12.66961320809656</v>
+        <v>19.01118276326843</v>
       </c>
       <c r="N5">
-        <v>13.87780606209858</v>
+        <v>20.77833450825413</v>
       </c>
       <c r="O5">
-        <v>21.43898020527988</v>
+        <v>32.84798929791059</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.45650412780112</v>
+        <v>20.35596514454025</v>
       </c>
       <c r="C6">
-        <v>9.732735604194259</v>
+        <v>6.939559286745091</v>
       </c>
       <c r="D6">
-        <v>8.336398319797983</v>
+        <v>13.39509948427631</v>
       </c>
       <c r="E6">
-        <v>8.060035207367511</v>
+        <v>13.66367495602004</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.126348692708418</v>
+        <v>3.717690125000233</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.272930783545358</v>
+        <v>8.350726426940755</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.275798064460701</v>
+        <v>12.32000913073662</v>
       </c>
       <c r="M6">
-        <v>12.64827651765372</v>
+        <v>19.00938389964197</v>
       </c>
       <c r="N6">
-        <v>13.88793174488697</v>
+        <v>20.78142829464168</v>
       </c>
       <c r="O6">
-        <v>21.43129702731931</v>
+        <v>32.85150339210311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.84081357027413</v>
+        <v>20.43714936320672</v>
       </c>
       <c r="C7">
-        <v>9.905019447496406</v>
+        <v>7.020014283442737</v>
       </c>
       <c r="D7">
-        <v>8.365296494043353</v>
+        <v>13.38882431842478</v>
       </c>
       <c r="E7">
-        <v>8.038659676966949</v>
+        <v>13.65343937955078</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.124289139271855</v>
+        <v>3.716873734026272</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.276666687916752</v>
+        <v>8.351431335518456</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.302522800288143</v>
+        <v>12.31630892432796</v>
       </c>
       <c r="M7">
-        <v>12.79612704829372</v>
+        <v>19.02213419533103</v>
       </c>
       <c r="N7">
-        <v>13.81792235624813</v>
+        <v>20.76012806558119</v>
       </c>
       <c r="O7">
-        <v>21.4861295319925</v>
+        <v>32.82772559454513</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.46528348721599</v>
+        <v>20.80061371811502</v>
       </c>
       <c r="C8">
-        <v>10.63128749342011</v>
+        <v>7.361426206589031</v>
       </c>
       <c r="D8">
-        <v>8.502422785728927</v>
+        <v>13.36596882596353</v>
       </c>
       <c r="E8">
-        <v>7.949490612156349</v>
+        <v>13.61097708418091</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.115486244471546</v>
+        <v>3.713460117959486</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.293400462240154</v>
+        <v>8.354582652559451</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.426043468576384</v>
+        <v>12.30335232963927</v>
       </c>
       <c r="M8">
-        <v>13.44109320421227</v>
+        <v>19.08488166024382</v>
       </c>
       <c r="N8">
-        <v>13.51554401038227</v>
+        <v>20.67043007944358</v>
       </c>
       <c r="O8">
-        <v>21.7660519315503</v>
+        <v>32.73801571210094</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.38194888004082</v>
+        <v>21.52652581729663</v>
       </c>
       <c r="C9">
-        <v>11.92946135632298</v>
+        <v>7.978250897534343</v>
       </c>
       <c r="D9">
-        <v>8.80584934287136</v>
+        <v>13.33852360056967</v>
       </c>
       <c r="E9">
-        <v>7.793523467976117</v>
+        <v>13.5373879114069</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.099185144880567</v>
+        <v>3.707440318630014</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.327254802246932</v>
+        <v>8.360906646773428</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.687683093201516</v>
+        <v>12.29001911481096</v>
       </c>
       <c r="M9">
-        <v>14.6682520473732</v>
+        <v>19.23066502699053</v>
       </c>
       <c r="N9">
-        <v>12.94387812791304</v>
+        <v>20.50986243843492</v>
       </c>
       <c r="O9">
-        <v>22.45806950742498</v>
+        <v>32.61701344819159</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.35449597495095</v>
+        <v>22.0628915007718</v>
       </c>
       <c r="C10">
-        <v>12.80440689750591</v>
+        <v>8.396577621804688</v>
       </c>
       <c r="D10">
-        <v>9.049719758603935</v>
+        <v>13.32894061333142</v>
       </c>
       <c r="E10">
-        <v>7.690842965242369</v>
+        <v>13.4891822038106</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.087728676377472</v>
+        <v>3.703424114687132</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.352918674097686</v>
+        <v>8.365639598929901</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.89113091729486</v>
+        <v>12.28754231264595</v>
       </c>
       <c r="M10">
-        <v>15.5390850612935</v>
+        <v>19.35107968468857</v>
       </c>
       <c r="N10">
-        <v>12.53452658579494</v>
+        <v>20.40113454812478</v>
       </c>
       <c r="O10">
-        <v>23.05911504211556</v>
+        <v>32.56177688497115</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.21431110597856</v>
+        <v>22.30652086646069</v>
       </c>
       <c r="C11">
-        <v>13.18517424035393</v>
+        <v>8.5788536912838</v>
       </c>
       <c r="D11">
-        <v>9.165176441554326</v>
+        <v>13.3268738771464</v>
       </c>
       <c r="E11">
-        <v>7.646818218351186</v>
+        <v>13.46851615685673</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.0826138949938</v>
+        <v>3.701684353933751</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.364804642492301</v>
+        <v>8.367811325062098</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.9859966614387</v>
+        <v>12.28799454036597</v>
       </c>
       <c r="M11">
-        <v>15.92730714005025</v>
+        <v>19.40861945009618</v>
       </c>
       <c r="N11">
-        <v>12.35005615799784</v>
+        <v>20.35365576827843</v>
       </c>
       <c r="O11">
-        <v>23.35368219459362</v>
+        <v>32.54398916753362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.55090141471598</v>
+        <v>22.3986401676916</v>
       </c>
       <c r="C12">
-        <v>13.326881476257</v>
+        <v>8.646691145130083</v>
       </c>
       <c r="D12">
-        <v>9.209543513863894</v>
+        <v>13.3264202747207</v>
       </c>
       <c r="E12">
-        <v>7.630543221340805</v>
+        <v>13.46087144046312</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.080689565991318</v>
+        <v>3.701038022197114</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.369339516796793</v>
+        <v>8.368636354742851</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.022243288214167</v>
+        <v>12.28839181718043</v>
       </c>
       <c r="M12">
-        <v>16.07309674000442</v>
+        <v>19.43079365424249</v>
       </c>
       <c r="N12">
-        <v>12.28040318970963</v>
+        <v>20.33596015535534</v>
       </c>
       <c r="O12">
-        <v>23.46834553344032</v>
+        <v>32.53831059610829</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.4776763894113</v>
+        <v>22.37880808873618</v>
       </c>
       <c r="C13">
-        <v>13.29647253923584</v>
+        <v>8.632134383033376</v>
       </c>
       <c r="D13">
-        <v>9.199959580859851</v>
+        <v>13.32650334442145</v>
       </c>
       <c r="E13">
-        <v>7.634030537702804</v>
+        <v>13.46250982253612</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.081103470916331</v>
+        <v>3.701176667384338</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.368361282029097</v>
+        <v>8.368458552922874</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.014422706965545</v>
+        <v>12.28829622094254</v>
       </c>
       <c r="M13">
-        <v>16.04175379181351</v>
+        <v>19.42600111130431</v>
       </c>
       <c r="N13">
-        <v>12.29539604177099</v>
+        <v>20.33975863329847</v>
       </c>
       <c r="O13">
-        <v>23.44351089576427</v>
+        <v>32.53948653269431</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.240761503137</v>
+        <v>22.31410281868369</v>
       </c>
       <c r="C14">
-        <v>13.19688227298325</v>
+        <v>8.5844586717279</v>
       </c>
       <c r="D14">
-        <v>9.16881361506308</v>
+        <v>13.32682996904507</v>
       </c>
       <c r="E14">
-        <v>7.645471261666513</v>
+        <v>13.46788359568745</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.082455336605125</v>
+        <v>3.701630930131881</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.365177028120306</v>
+        <v>8.367879148003331</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.988972271926579</v>
+        <v>12.28802270075636</v>
       </c>
       <c r="M14">
-        <v>15.93932622880847</v>
+        <v>19.41043608747498</v>
       </c>
       <c r="N14">
-        <v>12.34432201301718</v>
+        <v>20.35219426464268</v>
       </c>
       <c r="O14">
-        <v>23.36305271260009</v>
+        <v>32.54350079045474</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.10222644225382</v>
+        <v>22.27444853387766</v>
       </c>
       <c r="C15">
-        <v>13.13555739925713</v>
+        <v>8.555100501182155</v>
       </c>
       <c r="D15">
-        <v>9.149819865953416</v>
+        <v>13.32707286329657</v>
       </c>
       <c r="E15">
-        <v>7.652530954744761</v>
+        <v>13.47119875109473</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.083284981544452</v>
+        <v>3.70191080223006</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.363231108291449</v>
+        <v>8.367524588834966</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.973424938370298</v>
+        <v>12.28788456562704</v>
       </c>
       <c r="M15">
-        <v>15.87642516073056</v>
+        <v>19.40095185021395</v>
       </c>
       <c r="N15">
-        <v>12.37431536602341</v>
+        <v>20.3598483343291</v>
       </c>
       <c r="O15">
-        <v>23.31417793297706</v>
+        <v>32.54609737029809</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.29754871781255</v>
+        <v>22.04695504238467</v>
       </c>
       <c r="C16">
-        <v>12.77917546696699</v>
+        <v>8.384501098644765</v>
       </c>
       <c r="D16">
-        <v>9.042264987976901</v>
+        <v>13.32912176028365</v>
       </c>
       <c r="E16">
-        <v>7.693774954712404</v>
+        <v>13.49055814588446</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.088064770912343</v>
+        <v>3.703539561815725</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.352146444154304</v>
+        <v>8.365498043849188</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.884976938585293</v>
+        <v>12.28754444522701</v>
       </c>
       <c r="M16">
-        <v>15.51354693968636</v>
+        <v>19.34737389172406</v>
       </c>
       <c r="N16">
-        <v>12.54661318251599</v>
+        <v>20.40427715834516</v>
       </c>
       <c r="O16">
-        <v>23.04029648201784</v>
+        <v>32.56308721309189</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.79428190002782</v>
+        <v>21.9072400032186</v>
       </c>
       <c r="C17">
-        <v>12.55612498491795</v>
+        <v>8.277764204025367</v>
       </c>
       <c r="D17">
-        <v>8.977438048775765</v>
+        <v>13.33096546713157</v>
       </c>
       <c r="E17">
-        <v>7.719771364166997</v>
+        <v>13.50275759334538</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.091020856898263</v>
+        <v>3.704561047974116</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.345402889957262</v>
+        <v>8.364259579200144</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.831302665956914</v>
+        <v>12.28773949409277</v>
       </c>
       <c r="M17">
-        <v>15.2888390617669</v>
+        <v>19.31520465021313</v>
       </c>
       <c r="N17">
-        <v>12.65272569499165</v>
+        <v>20.432039425851</v>
       </c>
       <c r="O17">
-        <v>22.87775039740234</v>
+        <v>32.5753912390358</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.5012846914367</v>
+        <v>21.82685010794942</v>
       </c>
       <c r="C18">
-        <v>12.42620798586834</v>
+        <v>8.215618474614235</v>
       </c>
       <c r="D18">
-        <v>8.940576827438621</v>
+        <v>13.3322417576568</v>
       </c>
       <c r="E18">
-        <v>7.73497587682254</v>
+        <v>13.50989330188196</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.092730322635105</v>
+        <v>3.70515679424673</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.341543837576525</v>
+        <v>8.363549008148421</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.800649201914904</v>
+        <v>12.28800036409637</v>
       </c>
       <c r="M18">
-        <v>15.15885090749344</v>
+        <v>19.29696253371316</v>
       </c>
       <c r="N18">
-        <v>12.71392626558619</v>
+        <v>20.44819419671193</v>
       </c>
       <c r="O18">
-        <v>22.78624443809565</v>
+        <v>32.58315895495688</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.40147513460923</v>
+        <v>21.79962904017308</v>
       </c>
       <c r="C19">
-        <v>12.38194153659606</v>
+        <v>8.194448661915398</v>
       </c>
       <c r="D19">
-        <v>8.928169460898699</v>
+        <v>13.33271097579712</v>
       </c>
       <c r="E19">
-        <v>7.740166867020474</v>
+        <v>13.51232976970734</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.093310739782341</v>
+        <v>3.70535991655012</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.340240503966741</v>
+        <v>8.363308724743488</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.790308330470419</v>
+        <v>12.28811425650671</v>
       </c>
       <c r="M19">
-        <v>15.11471449322533</v>
+        <v>19.2908312163054</v>
       </c>
       <c r="N19">
-        <v>12.73467792192963</v>
+        <v>20.4536960260968</v>
       </c>
       <c r="O19">
-        <v>22.75560088819442</v>
+        <v>32.58590754676967</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.84822117095417</v>
+        <v>21.92211658585304</v>
       </c>
       <c r="C20">
-        <v>12.5800372303064</v>
+        <v>8.289204764537974</v>
       </c>
       <c r="D20">
-        <v>8.98429497710984</v>
+        <v>13.33074686712201</v>
       </c>
       <c r="E20">
-        <v>7.716977844704929</v>
+        <v>13.50144663868456</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.090705233755994</v>
+        <v>3.70445145934054</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.346118693504474</v>
+        <v>8.36439123391953</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.836993841034065</v>
+        <v>12.28770334982075</v>
       </c>
       <c r="M20">
-        <v>15.31283705915008</v>
+        <v>19.31860221716798</v>
       </c>
       <c r="N20">
-        <v>12.64141284866209</v>
+        <v>20.42906477814737</v>
       </c>
       <c r="O20">
-        <v>22.89484758106771</v>
+        <v>32.57400994811731</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.30841171980746</v>
+        <v>22.33311273281668</v>
       </c>
       <c r="C21">
-        <v>13.22620164012217</v>
+        <v>8.598494625788016</v>
       </c>
       <c r="D21">
-        <v>9.177944428315884</v>
+        <v>13.32672510767155</v>
       </c>
       <c r="E21">
-        <v>7.642100004074052</v>
+        <v>13.46630027846044</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.082057932558917</v>
+        <v>3.701497164026289</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.366111370315623</v>
+        <v>8.368049261853214</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.996438987979943</v>
+        <v>12.28809691445444</v>
       </c>
       <c r="M21">
-        <v>15.9694454081353</v>
+        <v>19.41499755853229</v>
       </c>
       <c r="N21">
-        <v>12.32994619756749</v>
+        <v>20.34853393374712</v>
       </c>
       <c r="O21">
-        <v>23.38660003235372</v>
+        <v>32.54229300004337</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.28984969543763</v>
+        <v>22.60088130107779</v>
       </c>
       <c r="C22">
-        <v>13.63405230446629</v>
+        <v>8.793705205539041</v>
       </c>
       <c r="D22">
-        <v>9.308270901407909</v>
+        <v>13.32601407005705</v>
       </c>
       <c r="E22">
-        <v>7.595478031874656</v>
+        <v>13.4443852496461</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.076478712435644</v>
+        <v>3.699639061851406</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.379377333938987</v>
+        <v>8.370455386468507</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.102524879848366</v>
+        <v>12.28967106718243</v>
       </c>
       <c r="M22">
-        <v>16.39143060226747</v>
+        <v>19.48023643930426</v>
       </c>
       <c r="N22">
-        <v>12.12753643182039</v>
+        <v>20.29755457351417</v>
       </c>
       <c r="O22">
-        <v>23.72619290295919</v>
+        <v>32.52772711328525</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.76950279933065</v>
+        <v>22.45807262535684</v>
       </c>
       <c r="C23">
-        <v>13.41769504141038</v>
+        <v>8.690161296934129</v>
       </c>
       <c r="D23">
-        <v>9.23836958025076</v>
+        <v>13.32621837086752</v>
       </c>
       <c r="E23">
-        <v>7.620145580121221</v>
+        <v>13.45598534532651</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.079450323293381</v>
+        <v>3.700624135441525</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.372277515225683</v>
+        <v>8.369169798279115</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.04573583042543</v>
+        <v>12.28871077002685</v>
       </c>
       <c r="M23">
-        <v>16.16688554911545</v>
+        <v>19.44521648294421</v>
       </c>
       <c r="N23">
-        <v>12.23547817818528</v>
+        <v>20.32461251703695</v>
       </c>
       <c r="O23">
-        <v>23.54325514783949</v>
+        <v>32.53493681271434</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.82384663299854</v>
+        <v>21.91539108141151</v>
       </c>
       <c r="C24">
-        <v>12.56923174401163</v>
+        <v>8.284034918128059</v>
       </c>
       <c r="D24">
-        <v>8.981193686659518</v>
+        <v>13.33084502233461</v>
       </c>
       <c r="E24">
-        <v>7.718239989403708</v>
+        <v>13.50203894096577</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.090847895812197</v>
+        <v>3.704500977940826</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.34579502320706</v>
+        <v>8.36433170833781</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.834420222745388</v>
+        <v>12.28771922727599</v>
       </c>
       <c r="M24">
-        <v>15.30199005178536</v>
+        <v>19.31706538998071</v>
       </c>
       <c r="N24">
-        <v>12.6465267752159</v>
+        <v>20.43040901232304</v>
       </c>
       <c r="O24">
-        <v>22.88711189510972</v>
+        <v>32.57463226814769</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.62252047893757</v>
+        <v>21.32925634242483</v>
       </c>
       <c r="C25">
-        <v>11.59202163754887</v>
+        <v>7.817329274274408</v>
       </c>
       <c r="D25">
-        <v>8.720075053032422</v>
+        <v>13.34408883552019</v>
       </c>
       <c r="E25">
-        <v>7.833656678392363</v>
+        <v>13.55626371416317</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.103498662407483</v>
+        <v>3.708997115692263</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.317969607104034</v>
+        <v>8.359180519018963</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.614887462066468</v>
+        <v>12.29233746813402</v>
       </c>
       <c r="M25">
-        <v>14.34118257900241</v>
+        <v>19.18884744003547</v>
       </c>
       <c r="N25">
-        <v>13.09648018465991</v>
+        <v>20.55166990464361</v>
       </c>
       <c r="O25">
-        <v>22.25495673273569</v>
+        <v>32.64384770691272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.90017149061062</v>
+        <v>20.88757195532429</v>
       </c>
       <c r="C2">
-        <v>7.450482347439462</v>
+        <v>10.81964700481946</v>
       </c>
       <c r="D2">
-        <v>13.36095203485508</v>
+        <v>8.541914335313669</v>
       </c>
       <c r="E2">
-        <v>13.60012849097872</v>
+        <v>7.926596020950289</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.712581000672822</v>
+        <v>2.113168461433283</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.355446309843638</v>
+        <v>5.297999450436572</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.30066027045948</v>
+        <v>7.460847840911371</v>
       </c>
       <c r="M2">
-        <v>19.10344080315191</v>
+        <v>13.61363617743815</v>
       </c>
       <c r="N2">
-        <v>20.64716776482446</v>
+        <v>13.43513707123066</v>
       </c>
       <c r="O2">
-        <v>32.71741759991863</v>
+        <v>21.85136230516138</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.61256484019727</v>
+        <v>19.64264026064739</v>
       </c>
       <c r="C3">
-        <v>7.188280921603954</v>
+        <v>10.26386366104194</v>
       </c>
       <c r="D3">
-        <v>13.37682016901493</v>
+        <v>8.430000984866739</v>
       </c>
       <c r="E3">
-        <v>13.63232731925872</v>
+        <v>7.994419113644194</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.715181920250302</v>
+        <v>2.119965212429332</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.352952483653093</v>
+        <v>5.28473615428648</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.30938497058558</v>
+        <v>7.361396959876311</v>
       </c>
       <c r="M3">
-        <v>19.05135426537491</v>
+        <v>13.11059569851895</v>
       </c>
       <c r="N3">
-        <v>20.71579964130773</v>
+        <v>13.670011862447</v>
       </c>
       <c r="O3">
-        <v>32.78131793631842</v>
+        <v>21.61464730044368</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.43810243344332</v>
+        <v>18.84527217179496</v>
       </c>
       <c r="C4">
-        <v>7.020948454680127</v>
+        <v>9.907017030183075</v>
       </c>
       <c r="D4">
-        <v>13.38875353698746</v>
+        <v>8.36563988528969</v>
       </c>
       <c r="E4">
-        <v>13.65332109316314</v>
+        <v>8.038412363960678</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.716864284877447</v>
+        <v>2.124265199092313</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.351439606168427</v>
+        <v>5.276710531757878</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.31626747406728</v>
+        <v>7.302838599820119</v>
       </c>
       <c r="M4">
-        <v>19.02228696092054</v>
+        <v>12.79785357112814</v>
       </c>
       <c r="N4">
-        <v>20.75988118260295</v>
+        <v>13.81710685140342</v>
       </c>
       <c r="O4">
-        <v>32.82745567913754</v>
+        <v>21.48679155863795</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.36762754702159</v>
+        <v>18.51227672263082</v>
       </c>
       <c r="C5">
-        <v>6.951227051167436</v>
+        <v>9.757751026777109</v>
       </c>
       <c r="D5">
-        <v>13.39416727251472</v>
+        <v>8.340505839004654</v>
       </c>
       <c r="E5">
-        <v>13.66218454573409</v>
+        <v>8.056925815239786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.717571405014507</v>
+        <v>2.126050275207658</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.350827744354616</v>
+        <v>5.27346765090642</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.31945638928321</v>
+        <v>7.279615356378259</v>
       </c>
       <c r="M5">
-        <v>19.01118276326843</v>
+        <v>12.66961320809656</v>
       </c>
       <c r="N5">
-        <v>20.77833450825413</v>
+        <v>13.87780606209861</v>
       </c>
       <c r="O5">
-        <v>32.84798929791059</v>
+        <v>21.43898020527988</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.35596514454025</v>
+        <v>18.45650412780112</v>
       </c>
       <c r="C6">
-        <v>6.939559286745091</v>
+        <v>9.732735604194408</v>
       </c>
       <c r="D6">
-        <v>13.39509948427631</v>
+        <v>8.336398319797841</v>
       </c>
       <c r="E6">
-        <v>13.66367495602004</v>
+        <v>8.060035207367381</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.717690125000233</v>
+        <v>2.126348692708286</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.350726426940755</v>
+        <v>5.272930783545459</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.32000913073662</v>
+        <v>7.275798064460568</v>
       </c>
       <c r="M6">
-        <v>19.00938389964197</v>
+        <v>12.64827651765361</v>
       </c>
       <c r="N6">
-        <v>20.78142829464168</v>
+        <v>13.88793174488687</v>
       </c>
       <c r="O6">
-        <v>32.85150339210311</v>
+        <v>21.43129702731898</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.43714936320672</v>
+        <v>18.84081357027412</v>
       </c>
       <c r="C7">
-        <v>7.020014283442737</v>
+        <v>9.905019447496597</v>
       </c>
       <c r="D7">
-        <v>13.38882431842478</v>
+        <v>8.365296494043349</v>
       </c>
       <c r="E7">
-        <v>13.65343937955078</v>
+        <v>8.038659676966951</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.716873734026272</v>
+        <v>2.124289139271853</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.351431335518456</v>
+        <v>5.276666687916719</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.31630892432796</v>
+        <v>7.302522800288047</v>
       </c>
       <c r="M7">
-        <v>19.02213419533103</v>
+        <v>12.79612704829371</v>
       </c>
       <c r="N7">
-        <v>20.76012806558119</v>
+        <v>13.81792235624813</v>
       </c>
       <c r="O7">
-        <v>32.82772559454513</v>
+        <v>21.48612953199243</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.80061371811502</v>
+        <v>20.46528348721596</v>
       </c>
       <c r="C8">
-        <v>7.361426206589031</v>
+        <v>10.6312874934201</v>
       </c>
       <c r="D8">
-        <v>13.36596882596353</v>
+        <v>8.502422785728726</v>
       </c>
       <c r="E8">
-        <v>13.61097708418091</v>
+        <v>7.949490612156347</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.713460117959486</v>
+        <v>2.115486244471413</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.354582652559451</v>
+        <v>5.293400462240253</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.30335232963927</v>
+        <v>7.426043468576353</v>
       </c>
       <c r="M8">
-        <v>19.08488166024382</v>
+        <v>13.44109320421225</v>
       </c>
       <c r="N8">
-        <v>20.67043007944358</v>
+        <v>13.51554401038227</v>
       </c>
       <c r="O8">
-        <v>32.73801571210094</v>
+        <v>21.76605193155021</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.52652581729663</v>
+        <v>23.38194888004082</v>
       </c>
       <c r="C9">
-        <v>7.978250897534343</v>
+        <v>11.92946135632309</v>
       </c>
       <c r="D9">
-        <v>13.33852360056967</v>
+        <v>8.805849342871381</v>
       </c>
       <c r="E9">
-        <v>13.5373879114069</v>
+        <v>7.793523467976242</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.707440318630014</v>
+        <v>2.099185144880702</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.360906646773428</v>
+        <v>5.327254802246998</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.29001911481096</v>
+        <v>7.687683093201506</v>
       </c>
       <c r="M9">
-        <v>19.23066502699053</v>
+        <v>14.66825204737327</v>
       </c>
       <c r="N9">
-        <v>20.50986243843492</v>
+        <v>12.94387812791307</v>
       </c>
       <c r="O9">
-        <v>32.61701344819159</v>
+        <v>22.45806950742513</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.0628915007718</v>
+        <v>25.35449597495097</v>
       </c>
       <c r="C10">
-        <v>8.396577621804688</v>
+        <v>12.80440689750584</v>
       </c>
       <c r="D10">
-        <v>13.32894061333142</v>
+        <v>9.049719758603946</v>
       </c>
       <c r="E10">
-        <v>13.4891822038106</v>
+        <v>7.690842965242371</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.703424114687132</v>
+        <v>2.087728676377607</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.365639598929901</v>
+        <v>5.352918674097686</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.28754231264595</v>
+        <v>7.891130917294871</v>
       </c>
       <c r="M10">
-        <v>19.35107968468857</v>
+        <v>15.53908506129348</v>
       </c>
       <c r="N10">
-        <v>20.40113454812478</v>
+        <v>12.53452658579477</v>
       </c>
       <c r="O10">
-        <v>32.56177688497115</v>
+        <v>23.05911504211534</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.30652086646069</v>
+        <v>26.21431110597857</v>
       </c>
       <c r="C11">
-        <v>8.5788536912838</v>
+        <v>13.18517424035396</v>
       </c>
       <c r="D11">
-        <v>13.3268738771464</v>
+        <v>9.16517644155447</v>
       </c>
       <c r="E11">
-        <v>13.46851615685673</v>
+        <v>7.646818218351243</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.701684353933751</v>
+        <v>2.082613894994064</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.367811325062098</v>
+        <v>5.364804642492169</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.28799454036597</v>
+        <v>7.985996661438749</v>
       </c>
       <c r="M11">
-        <v>19.40861945009618</v>
+        <v>15.92730714005026</v>
       </c>
       <c r="N11">
-        <v>20.35365576827843</v>
+        <v>12.35005615799784</v>
       </c>
       <c r="O11">
-        <v>32.54398916753362</v>
+        <v>23.35368219459365</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.3986401676916</v>
+        <v>26.55090141471595</v>
       </c>
       <c r="C12">
-        <v>8.646691145130083</v>
+        <v>13.3268814762569</v>
       </c>
       <c r="D12">
-        <v>13.3264202747207</v>
+        <v>9.209543513863917</v>
       </c>
       <c r="E12">
-        <v>13.46087144046312</v>
+        <v>7.630543221340687</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.701038022197114</v>
+        <v>2.080689565990916</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.368636354742851</v>
+        <v>5.369339516796694</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.28839181718043</v>
+        <v>8.022243288214085</v>
       </c>
       <c r="M12">
-        <v>19.43079365424249</v>
+        <v>16.07309674000443</v>
       </c>
       <c r="N12">
-        <v>20.33596015535534</v>
+        <v>12.28040318970966</v>
       </c>
       <c r="O12">
-        <v>32.53831059610829</v>
+        <v>23.46834553344043</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.37880808873618</v>
+        <v>26.47767638941126</v>
       </c>
       <c r="C13">
-        <v>8.632134383033376</v>
+        <v>13.29647253923583</v>
       </c>
       <c r="D13">
-        <v>13.32650334442145</v>
+        <v>9.19995958085978</v>
       </c>
       <c r="E13">
-        <v>13.46250982253612</v>
+        <v>7.634030537702808</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.701176667384338</v>
+        <v>2.081103470916197</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.368458552922874</v>
+        <v>5.36836128202913</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.28829622094254</v>
+        <v>8.014422706965522</v>
       </c>
       <c r="M13">
-        <v>19.42600111130431</v>
+        <v>16.04175379181353</v>
       </c>
       <c r="N13">
-        <v>20.33975863329847</v>
+        <v>12.29539604177106</v>
       </c>
       <c r="O13">
-        <v>32.53948653269431</v>
+        <v>23.44351089576438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.31410281868369</v>
+        <v>26.240761503137</v>
       </c>
       <c r="C14">
-        <v>8.5844586717279</v>
+        <v>13.19688227298335</v>
       </c>
       <c r="D14">
-        <v>13.32682996904507</v>
+        <v>9.168813615063167</v>
       </c>
       <c r="E14">
-        <v>13.46788359568745</v>
+        <v>7.645471261666505</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.701630930131881</v>
+        <v>2.082455336604987</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.367879148003331</v>
+        <v>5.365177028120207</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.28802270075636</v>
+        <v>7.988972271926542</v>
       </c>
       <c r="M14">
-        <v>19.41043608747498</v>
+        <v>15.93932622880847</v>
       </c>
       <c r="N14">
-        <v>20.35219426464268</v>
+        <v>12.34432201301714</v>
       </c>
       <c r="O14">
-        <v>32.54350079045474</v>
+        <v>23.36305271260001</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.27444853387766</v>
+        <v>26.10222644225381</v>
       </c>
       <c r="C15">
-        <v>8.555100501182155</v>
+        <v>13.13555739925698</v>
       </c>
       <c r="D15">
-        <v>13.32707286329657</v>
+        <v>9.149819865953452</v>
       </c>
       <c r="E15">
-        <v>13.47119875109473</v>
+        <v>7.652530954744647</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.70191080223006</v>
+        <v>2.083284981544454</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.367524588834966</v>
+        <v>5.363231108291383</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.28788456562704</v>
+        <v>7.973424938370307</v>
       </c>
       <c r="M15">
-        <v>19.40095185021395</v>
+        <v>15.87642516073056</v>
       </c>
       <c r="N15">
-        <v>20.3598483343291</v>
+        <v>12.37431536602344</v>
       </c>
       <c r="O15">
-        <v>32.54609737029809</v>
+        <v>23.31417793297707</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.04695504238467</v>
+        <v>25.29754871781254</v>
       </c>
       <c r="C16">
-        <v>8.384501098644765</v>
+        <v>12.77917546696715</v>
       </c>
       <c r="D16">
-        <v>13.32912176028365</v>
+        <v>9.042264987976981</v>
       </c>
       <c r="E16">
-        <v>13.49055814588446</v>
+        <v>7.693774954712521</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.703539561815725</v>
+        <v>2.088064770912345</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.365498043849188</v>
+        <v>5.352146444154339</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.28754444522701</v>
+        <v>7.884976938585307</v>
       </c>
       <c r="M16">
-        <v>19.34737389172406</v>
+        <v>15.51354693968639</v>
       </c>
       <c r="N16">
-        <v>20.40427715834516</v>
+        <v>12.54661318251609</v>
       </c>
       <c r="O16">
-        <v>32.56308721309189</v>
+        <v>23.04029648201795</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.9072400032186</v>
+        <v>24.79428190002784</v>
       </c>
       <c r="C17">
-        <v>8.277764204025367</v>
+        <v>12.55612498491796</v>
       </c>
       <c r="D17">
-        <v>13.33096546713157</v>
+        <v>8.97743804877584</v>
       </c>
       <c r="E17">
-        <v>13.50275759334538</v>
+        <v>7.719771364167062</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.704561047974116</v>
+        <v>2.091020856898129</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.364259579200144</v>
+        <v>5.345402889957261</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.28773949409277</v>
+        <v>7.831302665956927</v>
       </c>
       <c r="M17">
-        <v>19.31520465021313</v>
+        <v>15.28883906176692</v>
       </c>
       <c r="N17">
-        <v>20.432039425851</v>
+        <v>12.65272569499175</v>
       </c>
       <c r="O17">
-        <v>32.5753912390358</v>
+        <v>22.8777503974024</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.82685010794942</v>
+        <v>24.50128469143668</v>
       </c>
       <c r="C18">
-        <v>8.215618474614235</v>
+        <v>12.42620798586858</v>
       </c>
       <c r="D18">
-        <v>13.3322417576568</v>
+        <v>8.940576827438683</v>
       </c>
       <c r="E18">
-        <v>13.50989330188196</v>
+        <v>7.73497587682266</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.70515679424673</v>
+        <v>2.092730322635104</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.363549008148421</v>
+        <v>5.341543837576624</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.28800036409637</v>
+        <v>7.800649201914927</v>
       </c>
       <c r="M18">
-        <v>19.29696253371316</v>
+        <v>15.15885090749344</v>
       </c>
       <c r="N18">
-        <v>20.44819419671193</v>
+        <v>12.71392626558619</v>
       </c>
       <c r="O18">
-        <v>32.58315895495688</v>
+        <v>22.78624443809558</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.79962904017308</v>
+        <v>24.40147513460922</v>
       </c>
       <c r="C19">
-        <v>8.194448661915398</v>
+        <v>12.38194153659589</v>
       </c>
       <c r="D19">
-        <v>13.33271097579712</v>
+        <v>8.928169460898559</v>
       </c>
       <c r="E19">
-        <v>13.51232976970734</v>
+        <v>7.740166867020413</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.70535991655012</v>
+        <v>2.093310739782208</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.363308724743488</v>
+        <v>5.340240503966939</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.28811425650671</v>
+        <v>7.790308330470523</v>
       </c>
       <c r="M19">
-        <v>19.2908312163054</v>
+        <v>15.11471449322538</v>
       </c>
       <c r="N19">
-        <v>20.4536960260968</v>
+        <v>12.73467792192963</v>
       </c>
       <c r="O19">
-        <v>32.58590754676967</v>
+        <v>22.75560088819453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.92211658585304</v>
+        <v>24.84822117095415</v>
       </c>
       <c r="C20">
-        <v>8.289204764537974</v>
+        <v>12.58003723030632</v>
       </c>
       <c r="D20">
-        <v>13.33074686712201</v>
+        <v>8.984294977109707</v>
       </c>
       <c r="E20">
-        <v>13.50144663868456</v>
+        <v>7.716977844705056</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.70445145934054</v>
+        <v>2.090705233755995</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.36439123391953</v>
+        <v>5.346118693504508</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.28770334982075</v>
+        <v>7.836993841034112</v>
       </c>
       <c r="M20">
-        <v>19.31860221716798</v>
+        <v>15.3128370591501</v>
       </c>
       <c r="N20">
-        <v>20.42906477814737</v>
+        <v>12.64141284866213</v>
       </c>
       <c r="O20">
-        <v>32.57400994811731</v>
+        <v>22.89484758106773</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.33311273281668</v>
+        <v>26.30841171980744</v>
       </c>
       <c r="C21">
-        <v>8.598494625788016</v>
+        <v>13.22620164012208</v>
       </c>
       <c r="D21">
-        <v>13.32672510767155</v>
+        <v>9.177944428315925</v>
       </c>
       <c r="E21">
-        <v>13.46630027846044</v>
+        <v>7.642100004073993</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.701497164026289</v>
+        <v>2.082057932558913</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.368049261853214</v>
+        <v>5.366111370315584</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.28809691445444</v>
+        <v>7.996438987979953</v>
       </c>
       <c r="M21">
-        <v>19.41499755853229</v>
+        <v>15.96944540813531</v>
       </c>
       <c r="N21">
-        <v>20.34853393374712</v>
+        <v>12.32994619756759</v>
       </c>
       <c r="O21">
-        <v>32.54229300004337</v>
+        <v>23.38660003235377</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.60088130107779</v>
+        <v>27.28984969543765</v>
       </c>
       <c r="C22">
-        <v>8.793705205539041</v>
+        <v>13.63405230446614</v>
       </c>
       <c r="D22">
-        <v>13.32601407005705</v>
+        <v>9.308270901407942</v>
       </c>
       <c r="E22">
-        <v>13.4443852496461</v>
+        <v>7.595478031874653</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.699639061851406</v>
+        <v>2.076478712435908</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.370455386468507</v>
+        <v>5.37937733393899</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.28967106718243</v>
+        <v>8.10252487984843</v>
       </c>
       <c r="M22">
-        <v>19.48023643930426</v>
+        <v>16.39143060226749</v>
       </c>
       <c r="N22">
-        <v>20.29755457351417</v>
+        <v>12.12753643182039</v>
       </c>
       <c r="O22">
-        <v>32.52772711328525</v>
+        <v>23.72619290295922</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.45807262535684</v>
+        <v>26.76950279933061</v>
       </c>
       <c r="C23">
-        <v>8.690161296934129</v>
+        <v>13.41769504141032</v>
       </c>
       <c r="D23">
-        <v>13.32621837086752</v>
+        <v>9.238369580250739</v>
       </c>
       <c r="E23">
-        <v>13.45598534532651</v>
+        <v>7.620145580121279</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.700624135441525</v>
+        <v>2.079450323293379</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.369169798279115</v>
+        <v>5.372277515225752</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.28871077002685</v>
+        <v>8.045735830425437</v>
       </c>
       <c r="M23">
-        <v>19.44521648294421</v>
+        <v>16.16688554911546</v>
       </c>
       <c r="N23">
-        <v>20.32461251703695</v>
+        <v>12.23547817818532</v>
       </c>
       <c r="O23">
-        <v>32.53493681271434</v>
+        <v>23.54325514783953</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.91539108141151</v>
+        <v>24.82384663299854</v>
       </c>
       <c r="C24">
-        <v>8.284034918128059</v>
+        <v>12.56923174401166</v>
       </c>
       <c r="D24">
-        <v>13.33084502233461</v>
+        <v>8.981193686659553</v>
       </c>
       <c r="E24">
-        <v>13.50203894096577</v>
+        <v>7.718239989403706</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.704500977940826</v>
+        <v>2.090847895812195</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.36433170833781</v>
+        <v>5.345795023207028</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.28771922727599</v>
+        <v>7.834420222745367</v>
       </c>
       <c r="M24">
-        <v>19.31706538998071</v>
+        <v>15.30199005178537</v>
       </c>
       <c r="N24">
-        <v>20.43040901232304</v>
+        <v>12.64652677521583</v>
       </c>
       <c r="O24">
-        <v>32.57463226814769</v>
+        <v>22.88711189510969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.32925634242483</v>
+        <v>22.62252047893755</v>
       </c>
       <c r="C25">
-        <v>7.817329274274408</v>
+        <v>11.59202163754892</v>
       </c>
       <c r="D25">
-        <v>13.34408883552019</v>
+        <v>8.720075053032392</v>
       </c>
       <c r="E25">
-        <v>13.55626371416317</v>
+        <v>7.833656678392418</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.708997115692263</v>
+        <v>2.103498662407481</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.359180519018963</v>
+        <v>5.317969607104102</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.29233746813402</v>
+        <v>7.614887462066456</v>
       </c>
       <c r="M25">
-        <v>19.18884744003547</v>
+        <v>14.34118257900244</v>
       </c>
       <c r="N25">
-        <v>20.55166990464361</v>
+        <v>13.09648018465995</v>
       </c>
       <c r="O25">
-        <v>32.64384770691272</v>
+        <v>22.25495673273576</v>
       </c>
     </row>
   </sheetData>
